--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="70">
   <si>
     <t>TC_ID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>close browser</t>
-  </si>
-  <si>
     <t>CLOSE_BROWSER</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>CLOSE browser</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -145,13 +139,100 @@
   </si>
   <si>
     <t>static wait - 10 sec</t>
+  </si>
+  <si>
+    <t>EXPLICITWAIT</t>
+  </si>
+  <si>
+    <t>Wait until load facebook logo</t>
+  </si>
+  <si>
+    <t>Tc_003</t>
+  </si>
+  <si>
+    <t>verify facebook logo</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Verify Ratnaglobal logo</t>
+  </si>
+  <si>
+    <t>https://ratnaglobaltech.com/</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Launch automation demo site</t>
+  </si>
+  <si>
+    <t>https://demo.automationtesting.in/Register.html</t>
+  </si>
+  <si>
+    <t>Launch and close Automation demo site</t>
+  </si>
+  <si>
+    <t>//*[@id="basicBootstrapForm"]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>Sai Ram</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>Enter URL</t>
+  </si>
+  <si>
+    <t>Launch Browser</t>
+  </si>
+  <si>
+    <t>ISDISPLAYED</t>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div/div/div/div[1]/h2</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>VERIFYTEXT</t>
+  </si>
+  <si>
+    <t>//*[@id="header"]/div/div/div/div[2]/h1</t>
+  </si>
+  <si>
+    <t>Automation Demo Site</t>
+  </si>
+  <si>
+    <t>//*[@id="yearbox"]</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Slect Year</t>
+  </si>
+  <si>
+    <t>SELECTDROPDWONBYVALUE</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +255,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +281,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,6 +311,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -226,7 +330,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,12 +355,59 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -339,6 +490,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,9 +576,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,6 +611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,22 +787,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -658,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -666,67 +827,94 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -741,28 +929,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -791,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -805,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
@@ -816,11 +1004,9 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -831,37 +1017,37 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
@@ -874,79 +1060,79 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>16</v>
@@ -955,27 +1141,27 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
@@ -986,25 +1172,23 @@
       <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
@@ -1013,61 +1197,470 @@
         <v>16</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E8:E11 E13">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E8:E11 E13">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E21">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E21">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E2:E9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E22 E14:E17 E2:E12">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
     <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1075,36 +1668,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="72">
   <si>
     <t>TC_ID</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>2015</t>
+  </si>
+  <si>
+    <t>//*[@id5="basicBootstrapForm"]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>IMPLICITLYWAIT</t>
   </si>
 </sst>
 </file>
@@ -792,7 +798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,9 +1408,7 @@
       <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
@@ -1455,13 +1459,13 @@
         <v>16</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="I18" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1484,7 +1488,7 @@
         <v>45</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>38</v>

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_Steps" sheetId="2" r:id="rId2"/>
-    <sheet name="Actions" sheetId="3" r:id="rId3"/>
+    <sheet name="Actions" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_Steps" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="91">
   <si>
     <t>TC_ID</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Wait until load facebook logo</t>
   </si>
   <si>
-    <t>Tc_003</t>
-  </si>
-  <si>
     <t>verify facebook logo</t>
   </si>
   <si>
@@ -228,17 +225,77 @@
     <t>2015</t>
   </si>
   <si>
-    <t>//*[@id5="basicBootstrapForm"]/div[1]/div[1]/input</t>
-  </si>
-  <si>
     <t>IMPLICITLYWAIT</t>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div/div/div/div[1]/div/img</t>
+  </si>
+  <si>
+    <t>Create new account</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>Explicitwait</t>
+  </si>
+  <si>
+    <t>//*[@data-testid='open-registration-form-button']</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Mobile or email address</t>
+  </si>
+  <si>
+    <t>New password</t>
+  </si>
+  <si>
+    <t>Pendem</t>
+  </si>
+  <si>
+    <t>Sairam@1234</t>
+  </si>
+  <si>
+    <t>//*[@name="firstname"]</t>
+  </si>
+  <si>
+    <t>//*[@name="lastname"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-label="Mobile number or email address"]</t>
+  </si>
+  <si>
+    <t>//*[@autocomplete="new-password"]</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birthday_day</t>
+  </si>
+  <si>
+    <t>SELECTBYVISIBILETEXT</t>
+  </si>
+  <si>
+    <t>Select dropdown</t>
+  </si>
+  <si>
+    <t>Select female radio button</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Female')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +323,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -336,7 +399,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +431,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -798,7 +870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C5"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -878,10 +950,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>29</v>
@@ -890,24 +962,24 @@
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -936,722 +1008,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="6">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="6">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E11 E13">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E11 E13">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E21">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E21">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E22 E14:E17 E2:E12">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="I9" r:id="rId2"/>
-    <hyperlink ref="I17" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1712,4 +1068,1014 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="17">
+        <v>6300807378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="6">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23 E8:E21">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23 E8:E21">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E31">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E31">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E32 E24:E27 E2:E22">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I27" r:id="rId3"/>
+    <hyperlink ref="I18" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
 </file>
--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Actions" sheetId="3" r:id="rId2"/>
-    <sheet name="TC_Steps" sheetId="2" r:id="rId3"/>
+    <sheet name="TC_Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Actions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -868,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -905,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -939,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1008,75 +1008,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,4 +2014,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>